--- a/訓練資料集(帽子).xlsx
+++ b/訓練資料集(帽子).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\訓練資料集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC2658-3032-48A7-A855-2DC60E268368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90703160-F5E9-1C4D-A779-A593EE00D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="246">
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>商品分類</t>
   </si>
   <si>
@@ -950,6 +947,10 @@
   </si>
   <si>
     <t>_HM10_</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1395,48 +1396,48 @@
   <dimension ref="A1:E1649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="72.90625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="5"/>
-    <col min="4" max="4" width="25.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="5"/>
+    <col min="1" max="1" width="72.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5"/>
+    <col min="4" max="4" width="25.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">IF(C2="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C2)*(工作表2!B:B=D2), 0)),""))</f>
@@ -1445,16 +1446,16 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">IF(C3="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C3)*(工作表2!B:B=D3), 0)),""))</f>
@@ -1463,16 +1464,16 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">IF(C4="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C4)*(工作表2!B:B=D4), 0)),""))</f>
@@ -1481,16 +1482,16 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">IF(C5="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C5)*(工作表2!B:B=D5), 0)),""))</f>
@@ -1499,16 +1500,16 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">IF(C6="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C6)*(工作表2!B:B=D6), 0)),""))</f>
@@ -1517,16 +1518,16 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">IF(C7="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C7)*(工作表2!B:B=D7), 0)),""))</f>
@@ -1535,16 +1536,16 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" ref="E8">IF(C8="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C8)*(工作表2!B:B=D8), 0)),""))</f>
@@ -1553,16 +1554,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">IF(C9="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C9)*(工作表2!B:B=D9), 0)),""))</f>
@@ -1571,16 +1572,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">IF(C10="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C10)*(工作表2!B:B=D10), 0)),""))</f>
@@ -1589,16 +1590,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">IF(C11="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C11)*(工作表2!B:B=D11), 0)),""))</f>
@@ -1607,16 +1608,16 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">IF(C12="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C12)*(工作表2!B:B=D12), 0)),""))</f>
@@ -1625,16 +1626,16 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">IF(C13="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C13)*(工作表2!B:B=D13), 0)),""))</f>
@@ -1643,16 +1644,16 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">IF(C14="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C14)*(工作表2!B:B=D14), 0)),""))</f>
@@ -1661,16 +1662,16 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">IF(C15="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C15)*(工作表2!B:B=D15), 0)),""))</f>
@@ -1679,16 +1680,16 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">IF(C16="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C16)*(工作表2!B:B=D16), 0)),""))</f>
@@ -1697,16 +1698,16 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5" cm="1">
         <f t="array" ref="E17">IF(C17="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C17)*(工作表2!B:B=D17), 0)),""))</f>
@@ -1715,16 +1716,16 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E18" s="5" cm="1">
         <f t="array" ref="E18">IF(C18="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C18)*(工作表2!B:B=D18), 0)),""))</f>
@@ -1733,16 +1734,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5" cm="1">
         <f t="array" ref="E19">IF(C19="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C19)*(工作表2!B:B=D19), 0)),""))</f>
@@ -1751,16 +1752,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5" cm="1">
         <f t="array" ref="E20">IF(C20="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C20)*(工作表2!B:B=D20), 0)),""))</f>
@@ -1769,16 +1770,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5" cm="1">
         <f t="array" ref="E21">IF(C21="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C21)*(工作表2!B:B=D21), 0)),""))</f>
@@ -1787,16 +1788,16 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E22" s="5" cm="1">
         <f t="array" ref="E22">IF(C22="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C22)*(工作表2!B:B=D22), 0)),""))</f>
@@ -1805,16 +1806,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5" cm="1">
         <f t="array" ref="E23">IF(C23="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C23)*(工作表2!B:B=D23), 0)),""))</f>
@@ -1823,16 +1824,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5" cm="1">
         <f t="array" ref="E24">IF(C24="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C24)*(工作表2!B:B=D24), 0)),""))</f>
@@ -1841,16 +1842,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5" cm="1">
         <f t="array" ref="E25">IF(C25="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C25)*(工作表2!B:B=D25), 0)),""))</f>
@@ -1859,16 +1860,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E26" s="5" cm="1">
         <f t="array" ref="E26">IF(C26="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C26)*(工作表2!B:B=D26), 0)),""))</f>
@@ -1877,16 +1878,16 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5" cm="1">
         <f t="array" ref="E27">IF(C27="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C27)*(工作表2!B:B=D27), 0)),""))</f>
@@ -1895,16 +1896,16 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5" cm="1">
         <f t="array" ref="E28">IF(C28="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C28)*(工作表2!B:B=D28), 0)),""))</f>
@@ -1913,16 +1914,16 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5" cm="1">
         <f t="array" ref="E29">IF(C29="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C29)*(工作表2!B:B=D29), 0)),""))</f>
@@ -1931,16 +1932,16 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E30" s="5" cm="1">
         <f t="array" ref="E30">IF(C30="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C30)*(工作表2!B:B=D30), 0)),""))</f>
@@ -1949,16 +1950,16 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5" cm="1">
         <f t="array" ref="E31">IF(C31="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C31)*(工作表2!B:B=D31), 0)),""))</f>
@@ -1967,16 +1968,16 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5" cm="1">
         <f t="array" ref="E32">IF(C32="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C32)*(工作表2!B:B=D32), 0)),""))</f>
@@ -1985,16 +1986,16 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5" cm="1">
         <f t="array" ref="E33">IF(C33="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C33)*(工作表2!B:B=D33), 0)),""))</f>
@@ -2003,16 +2004,16 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E34" s="5" cm="1">
         <f t="array" ref="E34">IF(C34="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C34)*(工作表2!B:B=D34), 0)),""))</f>
@@ -2021,16 +2022,16 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5" cm="1">
         <f t="array" ref="E35">IF(C35="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C35)*(工作表2!B:B=D35), 0)),""))</f>
@@ -2039,16 +2040,16 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="5" cm="1">
         <f t="array" ref="E36">IF(C36="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C36)*(工作表2!B:B=D36), 0)),""))</f>
@@ -2057,16 +2058,16 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="5" cm="1">
         <f t="array" ref="E37">IF(C37="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C37)*(工作表2!B:B=D37), 0)),""))</f>
@@ -2075,16 +2076,16 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E38" s="5" cm="1">
         <f t="array" ref="E38">IF(C38="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C38)*(工作表2!B:B=D38), 0)),""))</f>
@@ -2093,16 +2094,16 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5" cm="1">
         <f t="array" ref="E39">IF(C39="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C39)*(工作表2!B:B=D39), 0)),""))</f>
@@ -2111,16 +2112,16 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="5" cm="1">
         <f t="array" ref="E40">IF(C40="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C40)*(工作表2!B:B=D40), 0)),""))</f>
@@ -2129,16 +2130,16 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E41" s="5" cm="1">
         <f t="array" ref="E41">IF(C41="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C41)*(工作表2!B:B=D41), 0)),""))</f>
@@ -2147,16 +2148,16 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5" cm="1">
         <f t="array" ref="E42">IF(C42="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C42)*(工作表2!B:B=D42), 0)),""))</f>
@@ -2165,16 +2166,16 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="5" cm="1">
         <f t="array" ref="E43">IF(C43="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C43)*(工作表2!B:B=D43), 0)),""))</f>
@@ -2183,16 +2184,16 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5" cm="1">
         <f t="array" ref="E44">IF(C44="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C44)*(工作表2!B:B=D44), 0)),""))</f>
@@ -2201,16 +2202,16 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E45" s="5" cm="1">
         <f t="array" ref="E45">IF(C45="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C45)*(工作表2!B:B=D45), 0)),""))</f>
@@ -2219,16 +2220,16 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5" cm="1">
         <f t="array" ref="E46">IF(C46="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C46)*(工作表2!B:B=D46), 0)),""))</f>
@@ -2237,16 +2238,16 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" cm="1">
         <f t="array" ref="E47">IF(C47="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C47)*(工作表2!B:B=D47), 0)),""))</f>
@@ -2255,16 +2256,16 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="5" cm="1">
         <f t="array" ref="E48">IF(C48="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C48)*(工作表2!B:B=D48), 0)),""))</f>
@@ -2273,16 +2274,16 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E49" s="5" cm="1">
         <f t="array" ref="E49">IF(C49="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C49)*(工作表2!B:B=D49), 0)),""))</f>
@@ -2291,16 +2292,16 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5" cm="1">
         <f t="array" ref="E50">IF(C50="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C50)*(工作表2!B:B=D50), 0)),""))</f>
@@ -2309,16 +2310,16 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="5" cm="1">
         <f t="array" ref="E51">IF(C51="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C51)*(工作表2!B:B=D51), 0)),""))</f>
@@ -2327,16 +2328,16 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="5" cm="1">
         <f t="array" ref="E52">IF(C52="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C52)*(工作表2!B:B=D52), 0)),""))</f>
@@ -2345,16 +2346,16 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E53" s="5" cm="1">
         <f t="array" ref="E53">IF(C53="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C53)*(工作表2!B:B=D53), 0)),""))</f>
@@ -2363,16 +2364,16 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5" cm="1">
         <f t="array" ref="E54">IF(C54="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C54)*(工作表2!B:B=D54), 0)),""))</f>
@@ -2381,16 +2382,16 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5" cm="1">
         <f t="array" ref="E55">IF(C55="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C55)*(工作表2!B:B=D55), 0)),""))</f>
@@ -2399,16 +2400,16 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5" cm="1">
         <f t="array" ref="E56">IF(C56="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C56)*(工作表2!B:B=D56), 0)),""))</f>
@@ -2417,16 +2418,16 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E57" s="5" cm="1">
         <f t="array" ref="E57">IF(C57="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C57)*(工作表2!B:B=D57), 0)),""))</f>
@@ -2435,16 +2436,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="5" cm="1">
         <f t="array" ref="E58">IF(C58="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C58)*(工作表2!B:B=D58), 0)),""))</f>
@@ -2453,16 +2454,16 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5" cm="1">
         <f t="array" ref="E59">IF(C59="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C59)*(工作表2!B:B=D59), 0)),""))</f>
@@ -2471,16 +2472,16 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5" cm="1">
         <f t="array" ref="E60">IF(C60="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C60)*(工作表2!B:B=D60), 0)),""))</f>
@@ -2489,16 +2490,16 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5" cm="1">
         <f t="array" ref="E61">IF(C61="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C61)*(工作表2!B:B=D61), 0)),""))</f>
@@ -2507,16 +2508,16 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E62" s="5" cm="1">
         <f t="array" ref="E62">IF(C62="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C62)*(工作表2!B:B=D62), 0)),""))</f>
@@ -2525,16 +2526,16 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5" cm="1">
         <f t="array" ref="E63">IF(C63="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C63)*(工作表2!B:B=D63), 0)),""))</f>
@@ -2543,16 +2544,16 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="5" cm="1">
         <f t="array" ref="E64">IF(C64="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C64)*(工作表2!B:B=D64), 0)),""))</f>
@@ -2561,16 +2562,16 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="5" cm="1">
         <f t="array" ref="E65">IF(C65="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C65)*(工作表2!B:B=D65), 0)),""))</f>
@@ -2579,16 +2580,16 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E66" s="5" cm="1">
         <f t="array" ref="E66">IF(C66="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C66)*(工作表2!B:B=D66), 0)),""))</f>
@@ -2597,16 +2598,16 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5" cm="1">
         <f t="array" ref="E67">IF(C67="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C67)*(工作表2!B:B=D67), 0)),""))</f>
@@ -2615,16 +2616,16 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="5" cm="1">
         <f t="array" ref="E68">IF(C68="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C68)*(工作表2!B:B=D68), 0)),""))</f>
@@ -2633,16 +2634,16 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="5" cm="1">
         <f t="array" ref="E69">IF(C69="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C69)*(工作表2!B:B=D69), 0)),""))</f>
@@ -2651,16 +2652,16 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E70" s="5" cm="1">
         <f t="array" ref="E70">IF(C70="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C70)*(工作表2!B:B=D70), 0)),""))</f>
@@ -2669,16 +2670,16 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E71" s="5" cm="1">
         <f t="array" ref="E71">IF(C71="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C71)*(工作表2!B:B=D71), 0)),""))</f>
@@ -2687,16 +2688,16 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="5" cm="1">
         <f t="array" ref="E72">IF(C72="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C72)*(工作表2!B:B=D72), 0)),""))</f>
@@ -2705,16 +2706,16 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" s="5" cm="1">
         <f t="array" ref="E73">IF(C73="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C73)*(工作表2!B:B=D73), 0)),""))</f>
@@ -2723,16 +2724,16 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E74" s="5" cm="1">
         <f t="array" ref="E74">IF(C74="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C74)*(工作表2!B:B=D74), 0)),""))</f>
@@ -2741,16 +2742,16 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" s="5" cm="1">
         <f t="array" ref="E75">IF(C75="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C75)*(工作表2!B:B=D75), 0)),""))</f>
@@ -2759,16 +2760,16 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="5" cm="1">
         <f t="array" ref="E76">IF(C76="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C76)*(工作表2!B:B=D76), 0)),""))</f>
@@ -2777,16 +2778,16 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5" cm="1">
         <f t="array" ref="E77">IF(C77="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C77)*(工作表2!B:B=D77), 0)),""))</f>
@@ -2795,16 +2796,16 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E78" s="5" cm="1">
         <f t="array" ref="E78">IF(C78="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C78)*(工作表2!B:B=D78), 0)),""))</f>
@@ -2813,16 +2814,16 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E79" s="5" cm="1">
         <f t="array" ref="E79">IF(C79="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C79)*(工作表2!B:B=D79), 0)),""))</f>
@@ -2831,16 +2832,16 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="5" cm="1">
         <f t="array" ref="E80">IF(C80="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C80)*(工作表2!B:B=D80), 0)),""))</f>
@@ -2849,16 +2850,16 @@
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="5" cm="1">
         <f t="array" ref="E81">IF(C81="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C81)*(工作表2!B:B=D81), 0)),""))</f>
@@ -2867,16 +2868,16 @@
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E82" s="5" cm="1">
         <f t="array" ref="E82">IF(C82="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C82)*(工作表2!B:B=D82), 0)),""))</f>
@@ -2885,16 +2886,16 @@
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83" s="5" cm="1">
         <f t="array" ref="E83">IF(C83="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C83)*(工作表2!B:B=D83), 0)),""))</f>
@@ -2903,16 +2904,16 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="5" cm="1">
         <f t="array" ref="E84">IF(C84="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C84)*(工作表2!B:B=D84), 0)),""))</f>
@@ -2921,16 +2922,16 @@
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="5" cm="1">
         <f t="array" ref="E85">IF(C85="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C85)*(工作表2!B:B=D85), 0)),""))</f>
@@ -2939,16 +2940,16 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E86" s="5" cm="1">
         <f t="array" ref="E86">IF(C86="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C86)*(工作表2!B:B=D86), 0)),""))</f>
@@ -2957,16 +2958,16 @@
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87" s="5" cm="1">
         <f t="array" ref="E87">IF(C87="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C87)*(工作表2!B:B=D87), 0)),""))</f>
@@ -2975,16 +2976,16 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="5" cm="1">
         <f t="array" ref="E88">IF(C88="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C88)*(工作表2!B:B=D88), 0)),""))</f>
@@ -2993,16 +2994,16 @@
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" s="5" cm="1">
         <f t="array" ref="E89">IF(C89="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C89)*(工作表2!B:B=D89), 0)),""))</f>
@@ -3011,16 +3012,16 @@
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E90" s="5" cm="1">
         <f t="array" ref="E90">IF(C90="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C90)*(工作表2!B:B=D90), 0)),""))</f>
@@ -3029,16 +3030,16 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" s="5" cm="1">
         <f t="array" ref="E91">IF(C91="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C91)*(工作表2!B:B=D91), 0)),""))</f>
@@ -3047,16 +3048,16 @@
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" s="5" cm="1">
         <f t="array" ref="E92">IF(C92="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C92)*(工作表2!B:B=D92), 0)),""))</f>
@@ -3065,16 +3066,16 @@
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="5" cm="1">
         <f t="array" ref="E93">IF(C93="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C93)*(工作表2!B:B=D93), 0)),""))</f>
@@ -3083,16 +3084,16 @@
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E94" s="5" cm="1">
         <f t="array" ref="E94">IF(C94="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C94)*(工作表2!B:B=D94), 0)),""))</f>
@@ -3101,16 +3102,16 @@
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" s="5" cm="1">
         <f t="array" ref="E95">IF(C95="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C95)*(工作表2!B:B=D95), 0)),""))</f>
@@ -3119,16 +3120,16 @@
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="5" cm="1">
         <f t="array" ref="E96">IF(C96="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C96)*(工作表2!B:B=D96), 0)),""))</f>
@@ -3137,16 +3138,16 @@
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97" s="5" cm="1">
         <f t="array" ref="E97">IF(C97="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C97)*(工作表2!B:B=D97), 0)),""))</f>
@@ -3155,16 +3156,16 @@
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E98" s="5" cm="1">
         <f t="array" ref="E98">IF(C98="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C98)*(工作表2!B:B=D98), 0)),""))</f>
@@ -3173,16 +3174,16 @@
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" s="5" cm="1">
         <f t="array" ref="E99">IF(C99="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C99)*(工作表2!B:B=D99), 0)),""))</f>
@@ -3191,16 +3192,16 @@
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" s="5" cm="1">
         <f t="array" ref="E100">IF(C100="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C100)*(工作表2!B:B=D100), 0)),""))</f>
@@ -3209,16 +3210,16 @@
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" s="5" cm="1">
         <f t="array" ref="E101">IF(C101="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C101)*(工作表2!B:B=D101), 0)),""))</f>
@@ -3227,16 +3228,16 @@
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E102" s="5" cm="1">
         <f t="array" ref="E102">IF(C102="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C102)*(工作表2!B:B=D102), 0)),""))</f>
@@ -3245,16 +3246,16 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E103" s="5" cm="1">
         <f t="array" ref="E103">IF(C103="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C103)*(工作表2!B:B=D103), 0)),""))</f>
@@ -3263,16 +3264,16 @@
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" s="5" cm="1">
         <f t="array" ref="E104">IF(C104="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C104)*(工作表2!B:B=D104), 0)),""))</f>
@@ -3281,16 +3282,16 @@
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1">
       <c r="A105" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="5" cm="1">
         <f t="array" ref="E105">IF(C105="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C105)*(工作表2!B:B=D105), 0)),""))</f>
@@ -3299,16 +3300,16 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E106" s="5" cm="1">
         <f t="array" ref="E106">IF(C106="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C106)*(工作表2!B:B=D106), 0)),""))</f>
@@ -3317,16 +3318,16 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E107" s="5" cm="1">
         <f t="array" ref="E107">IF(C107="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C107)*(工作表2!B:B=D107), 0)),""))</f>
@@ -3335,16 +3336,16 @@
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1">
       <c r="A108" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" s="5" cm="1">
         <f t="array" ref="E108">IF(C108="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C108)*(工作表2!B:B=D108), 0)),""))</f>
@@ -3353,16 +3354,16 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1">
       <c r="A109" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" s="5" cm="1">
         <f t="array" ref="E109">IF(C109="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C109)*(工作表2!B:B=D109), 0)),""))</f>
@@ -3371,16 +3372,16 @@
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E110" s="5" cm="1">
         <f t="array" ref="E110">IF(C110="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C110)*(工作表2!B:B=D110), 0)),""))</f>
@@ -3389,16 +3390,16 @@
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1">
       <c r="A111" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" s="5" cm="1">
         <f t="array" ref="E111">IF(C111="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C111)*(工作表2!B:B=D111), 0)),""))</f>
@@ -3407,16 +3408,16 @@
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1">
       <c r="A112" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" s="5" cm="1">
         <f t="array" ref="E112">IF(C112="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C112)*(工作表2!B:B=D112), 0)),""))</f>
@@ -3425,16 +3426,16 @@
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1">
       <c r="A113" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" s="5" cm="1">
         <f t="array" ref="E113">IF(C113="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C113)*(工作表2!B:B=D113), 0)),""))</f>
@@ -3443,16 +3444,16 @@
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1">
       <c r="A114" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E114" s="5" cm="1">
         <f t="array" ref="E114">IF(C114="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C114)*(工作表2!B:B=D114), 0)),""))</f>
@@ -3461,16 +3462,16 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1">
       <c r="A115" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" s="5" cm="1">
         <f t="array" ref="E115">IF(C115="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C115)*(工作表2!B:B=D115), 0)),""))</f>
@@ -3479,16 +3480,16 @@
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1">
       <c r="A116" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E116" s="5" cm="1">
         <f t="array" ref="E116">IF(C116="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C116)*(工作表2!B:B=D116), 0)),""))</f>
@@ -3497,16 +3498,16 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1">
       <c r="A117" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E117" s="5" cm="1">
         <f t="array" ref="E117">IF(C117="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C117)*(工作表2!B:B=D117), 0)),""))</f>
@@ -3515,16 +3516,16 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118" s="5" cm="1">
         <f t="array" ref="E118">IF(C118="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C118)*(工作表2!B:B=D118), 0)),""))</f>
@@ -3533,16 +3534,16 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1">
       <c r="A119" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="5" cm="1">
         <f t="array" ref="E119">IF(C119="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C119)*(工作表2!B:B=D119), 0)),""))</f>
@@ -3551,16 +3552,16 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1">
       <c r="A120" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E120" s="5" cm="1">
         <f t="array" ref="E120">IF(C120="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C120)*(工作表2!B:B=D120), 0)),""))</f>
@@ -3569,16 +3570,16 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1">
       <c r="A121" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E121" s="5" cm="1">
         <f t="array" ref="E121">IF(C121="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C121)*(工作表2!B:B=D121), 0)),""))</f>
@@ -3587,16 +3588,16 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1">
       <c r="A122" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122" s="5" cm="1">
         <f t="array" ref="E122">IF(C122="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C122)*(工作表2!B:B=D122), 0)),""))</f>
@@ -3605,16 +3606,16 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1">
       <c r="A123" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123" s="5" cm="1">
         <f t="array" ref="E123">IF(C123="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C123)*(工作表2!B:B=D123), 0)),""))</f>
@@ -3623,16 +3624,16 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1">
       <c r="A124" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124" s="5" cm="1">
         <f t="array" ref="E124">IF(C124="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C124)*(工作表2!B:B=D124), 0)),""))</f>
@@ -3641,16 +3642,16 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1">
       <c r="A125" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E125" s="5" cm="1">
         <f t="array" ref="E125">IF(C125="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C125)*(工作表2!B:B=D125), 0)),""))</f>
@@ -3659,16 +3660,16 @@
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1">
       <c r="A126" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126" s="5" cm="1">
         <f t="array" ref="E126">IF(C126="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C126)*(工作表2!B:B=D126), 0)),""))</f>
@@ -3677,16 +3678,16 @@
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1">
       <c r="A127" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" s="5" cm="1">
         <f t="array" ref="E127">IF(C127="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C127)*(工作表2!B:B=D127), 0)),""))</f>
@@ -3695,16 +3696,16 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128" s="5" cm="1">
         <f t="array" ref="E128">IF(C128="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C128)*(工作表2!B:B=D128), 0)),""))</f>
@@ -3713,16 +3714,16 @@
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E129" s="5" cm="1">
         <f t="array" ref="E129">IF(C129="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C129)*(工作表2!B:B=D129), 0)),""))</f>
@@ -3731,16 +3732,16 @@
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E130" s="5" cm="1">
         <f t="array" ref="E130">IF(C130="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C130)*(工作表2!B:B=D130), 0)),""))</f>
@@ -3749,16 +3750,16 @@
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1">
       <c r="A131" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131" s="5" cm="1">
         <f t="array" ref="E131">IF(C131="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C131)*(工作表2!B:B=D131), 0)),""))</f>
@@ -3767,16 +3768,16 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1">
       <c r="A132" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" s="5" cm="1">
         <f t="array" ref="E132">IF(C132="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C132)*(工作表2!B:B=D132), 0)),""))</f>
@@ -3785,16 +3786,16 @@
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1">
       <c r="A133" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E133" s="5" cm="1">
         <f t="array" ref="E133">IF(C133="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C133)*(工作表2!B:B=D133), 0)),""))</f>
@@ -3803,16 +3804,16 @@
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E134" s="5" cm="1">
         <f t="array" ref="E134">IF(C134="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C134)*(工作表2!B:B=D134), 0)),""))</f>
@@ -3821,16 +3822,16 @@
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1">
       <c r="A135" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E135" s="5" cm="1">
         <f t="array" ref="E135">IF(C135="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C135)*(工作表2!B:B=D135), 0)),""))</f>
@@ -3839,16 +3840,16 @@
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1">
       <c r="A136" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" s="5" cm="1">
         <f t="array" ref="E136">IF(C136="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C136)*(工作表2!B:B=D136), 0)),""))</f>
@@ -3857,16 +3858,16 @@
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1">
       <c r="A137" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" s="5" cm="1">
         <f t="array" ref="E137">IF(C137="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C137)*(工作表2!B:B=D137), 0)),""))</f>
@@ -3875,16 +3876,16 @@
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1">
       <c r="A138" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138" s="5" cm="1">
         <f t="array" ref="E138">IF(C138="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C138)*(工作表2!B:B=D138), 0)),""))</f>
@@ -3893,16 +3894,16 @@
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1">
       <c r="A139" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E139" s="5" cm="1">
         <f t="array" ref="E139">IF(C139="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C139)*(工作表2!B:B=D139), 0)),""))</f>
@@ -3911,16 +3912,16 @@
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1">
       <c r="A140" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140" s="5" cm="1">
         <f t="array" ref="E140">IF(C140="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C140)*(工作表2!B:B=D140), 0)),""))</f>
@@ -3929,16 +3930,16 @@
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1">
       <c r="A141" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E141" s="5" cm="1">
         <f t="array" ref="E141">IF(C141="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C141)*(工作表2!B:B=D141), 0)),""))</f>
@@ -3947,16 +3948,16 @@
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1">
       <c r="A142" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E142" s="5" cm="1">
         <f t="array" ref="E142">IF(C142="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C142)*(工作表2!B:B=D142), 0)),""))</f>
@@ -3965,16 +3966,16 @@
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1">
       <c r="A143" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E143" s="5" cm="1">
         <f t="array" ref="E143">IF(C143="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C143)*(工作表2!B:B=D143), 0)),""))</f>
@@ -3983,16 +3984,16 @@
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1">
       <c r="A144" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144" s="5" cm="1">
         <f t="array" ref="E144">IF(C144="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C144)*(工作表2!B:B=D144), 0)),""))</f>
@@ -4001,16 +4002,16 @@
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1">
       <c r="A145" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E145" s="5" cm="1">
         <f t="array" ref="E145">IF(C145="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C145)*(工作表2!B:B=D145), 0)),""))</f>
@@ -4019,16 +4020,16 @@
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1">
       <c r="A146" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E146" s="5" cm="1">
         <f t="array" ref="E146">IF(C146="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C146)*(工作表2!B:B=D146), 0)),""))</f>
@@ -4037,16 +4038,16 @@
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1">
       <c r="A147" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147" s="5" cm="1">
         <f t="array" ref="E147">IF(C147="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C147)*(工作表2!B:B=D147), 0)),""))</f>
@@ -4055,16 +4056,16 @@
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1">
       <c r="A148" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E148" s="5" cm="1">
         <f t="array" ref="E148">IF(C148="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C148)*(工作表2!B:B=D148), 0)),""))</f>
@@ -4073,16 +4074,16 @@
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1">
       <c r="A149" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E149" s="5" cm="1">
         <f t="array" ref="E149">IF(C149="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C149)*(工作表2!B:B=D149), 0)),""))</f>
@@ -4091,16 +4092,16 @@
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1">
       <c r="A150" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E150" s="5" cm="1">
         <f t="array" ref="E150">IF(C150="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C150)*(工作表2!B:B=D150), 0)),""))</f>
@@ -4109,16 +4110,16 @@
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1">
       <c r="A151" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" s="5" cm="1">
         <f t="array" ref="E151">IF(C151="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C151)*(工作表2!B:B=D151), 0)),""))</f>
@@ -4127,16 +4128,16 @@
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1">
       <c r="A152" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152" s="5" cm="1">
         <f t="array" ref="E152">IF(C152="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C152)*(工作表2!B:B=D152), 0)),""))</f>
@@ -4145,16 +4146,16 @@
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1">
       <c r="A153" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E153" s="5" cm="1">
         <f t="array" ref="E153">IF(C153="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C153)*(工作表2!B:B=D153), 0)),""))</f>
@@ -4163,16 +4164,16 @@
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1">
       <c r="A154" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E154" s="5" cm="1">
         <f t="array" ref="E154">IF(C154="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C154)*(工作表2!B:B=D154), 0)),""))</f>
@@ -4181,16 +4182,16 @@
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E155" s="5" cm="1">
         <f t="array" ref="E155">IF(C155="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C155)*(工作表2!B:B=D155), 0)),""))</f>
@@ -4199,16 +4200,16 @@
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1">
       <c r="A156" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E156" s="5" cm="1">
         <f t="array" ref="E156">IF(C156="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C156)*(工作表2!B:B=D156), 0)),""))</f>
@@ -4217,16 +4218,16 @@
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1">
       <c r="A157" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E157" s="5" cm="1">
         <f t="array" ref="E157">IF(C157="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C157)*(工作表2!B:B=D157), 0)),""))</f>
@@ -4235,16 +4236,16 @@
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1">
       <c r="A158" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E158" s="5" cm="1">
         <f t="array" ref="E158">IF(C158="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C158)*(工作表2!B:B=D158), 0)),""))</f>
@@ -4253,16 +4254,16 @@
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="A159" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E159" s="5" cm="1">
         <f t="array" ref="E159">IF(C159="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C159)*(工作表2!B:B=D159), 0)),""))</f>
@@ -4271,16 +4272,16 @@
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="A160" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E160" s="5" cm="1">
         <f t="array" ref="E160">IF(C160="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C160)*(工作表2!B:B=D160), 0)),""))</f>
@@ -4289,16 +4290,16 @@
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1">
       <c r="A161" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E161" s="5" cm="1">
         <f t="array" ref="E161">IF(C161="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C161)*(工作表2!B:B=D161), 0)),""))</f>
@@ -4307,16 +4308,16 @@
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E162" s="5" cm="1">
         <f t="array" ref="E162">IF(C162="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C162)*(工作表2!B:B=D162), 0)),""))</f>
@@ -4325,16 +4326,16 @@
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1">
       <c r="A163" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E163" s="5" cm="1">
         <f t="array" ref="E163">IF(C163="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C163)*(工作表2!B:B=D163), 0)),""))</f>
@@ -4343,16 +4344,16 @@
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1">
       <c r="A164" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164" s="5" cm="1">
         <f t="array" ref="E164">IF(C164="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C164)*(工作表2!B:B=D164), 0)),""))</f>
@@ -4361,16 +4362,16 @@
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E165" s="5" cm="1">
         <f t="array" ref="E165">IF(C165="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C165)*(工作表2!B:B=D165), 0)),""))</f>
@@ -4379,16 +4380,16 @@
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1">
       <c r="A166" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E166" s="5" cm="1">
         <f t="array" ref="E166">IF(C166="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C166)*(工作表2!B:B=D166), 0)),""))</f>
@@ -4397,16 +4398,16 @@
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E167" s="5" cm="1">
         <f t="array" ref="E167">IF(C167="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C167)*(工作表2!B:B=D167), 0)),""))</f>
@@ -4415,16 +4416,16 @@
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E168" s="5" cm="1">
         <f t="array" ref="E168">IF(C168="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C168)*(工作表2!B:B=D168), 0)),""))</f>
@@ -4433,16 +4434,16 @@
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C169" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E169" s="5" cm="1">
         <f t="array" ref="E169">IF(C169="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C169)*(工作表2!B:B=D169), 0)),""))</f>
@@ -4451,16 +4452,16 @@
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1">
       <c r="A170" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E170" s="5" cm="1">
         <f t="array" ref="E170">IF(C170="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C170)*(工作表2!B:B=D170), 0)),""))</f>
@@ -4469,16 +4470,16 @@
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1">
       <c r="A171" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E171" s="5" cm="1">
         <f t="array" ref="E171">IF(C171="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C171)*(工作表2!B:B=D171), 0)),""))</f>
@@ -4487,16 +4488,16 @@
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1">
       <c r="A172" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172" s="5" cm="1">
         <f t="array" ref="E172">IF(C172="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C172)*(工作表2!B:B=D172), 0)),""))</f>
@@ -4505,16 +4506,16 @@
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E173" s="5" cm="1">
         <f t="array" ref="E173">IF(C173="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C173)*(工作表2!B:B=D173), 0)),""))</f>
@@ -4523,16 +4524,16 @@
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1">
       <c r="A174" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E174" s="5" cm="1">
         <f t="array" ref="E174">IF(C174="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C174)*(工作表2!B:B=D174), 0)),""))</f>
@@ -4541,16 +4542,16 @@
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1">
       <c r="A175" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175" s="5" cm="1">
         <f t="array" ref="E175">IF(C175="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C175)*(工作表2!B:B=D175), 0)),""))</f>
@@ -4559,16 +4560,16 @@
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1">
       <c r="A176" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176" s="5" cm="1">
         <f t="array" ref="E176">IF(C176="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C176)*(工作表2!B:B=D176), 0)),""))</f>
@@ -4577,16 +4578,16 @@
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E177" s="5" cm="1">
         <f t="array" ref="E177">IF(C177="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C177)*(工作表2!B:B=D177), 0)),""))</f>
@@ -4595,16 +4596,16 @@
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1">
       <c r="A178" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E178" s="5" cm="1">
         <f t="array" ref="E178">IF(C178="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C178)*(工作表2!B:B=D178), 0)),""))</f>
@@ -4613,16 +4614,16 @@
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1">
       <c r="A179" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E179" s="5" cm="1">
         <f t="array" ref="E179">IF(C179="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C179)*(工作表2!B:B=D179), 0)),""))</f>
@@ -4631,16 +4632,16 @@
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1">
       <c r="A180" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E180" s="5" cm="1">
         <f t="array" ref="E180">IF(C180="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C180)*(工作表2!B:B=D180), 0)),""))</f>
@@ -4649,16 +4650,16 @@
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1">
       <c r="A181" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E181" s="5" cm="1">
         <f t="array" ref="E181">IF(C181="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C181)*(工作表2!B:B=D181), 0)),""))</f>
@@ -4667,16 +4668,16 @@
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E182" s="5" cm="1">
         <f t="array" ref="E182">IF(C182="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C182)*(工作表2!B:B=D182), 0)),""))</f>
@@ -4685,16 +4686,16 @@
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E183" s="5" cm="1">
         <f t="array" ref="E183">IF(C183="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C183)*(工作表2!B:B=D183), 0)),""))</f>
@@ -4703,16 +4704,16 @@
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E184" s="5" cm="1">
         <f t="array" ref="E184">IF(C184="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C184)*(工作表2!B:B=D184), 0)),""))</f>
@@ -4721,16 +4722,16 @@
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E185" s="5" cm="1">
         <f t="array" ref="E185">IF(C185="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C185)*(工作表2!B:B=D185), 0)),""))</f>
@@ -4739,16 +4740,16 @@
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E186" s="5" cm="1">
         <f t="array" ref="E186">IF(C186="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C186)*(工作表2!B:B=D186), 0)),""))</f>
@@ -4757,16 +4758,16 @@
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E187" s="5" cm="1">
         <f t="array" ref="E187">IF(C187="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C187)*(工作表2!B:B=D187), 0)),""))</f>
@@ -4775,16 +4776,16 @@
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E188" s="5" cm="1">
         <f t="array" ref="E188">IF(C188="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C188)*(工作表2!B:B=D188), 0)),""))</f>
@@ -4793,16 +4794,16 @@
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1">
       <c r="A189" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E189" s="5" cm="1">
         <f t="array" ref="E189">IF(C189="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C189)*(工作表2!B:B=D189), 0)),""))</f>
@@ -4811,16 +4812,16 @@
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1">
       <c r="A190" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E190" s="5" cm="1">
         <f t="array" ref="E190">IF(C190="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C190)*(工作表2!B:B=D190), 0)),""))</f>
@@ -4829,16 +4830,16 @@
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E191" s="5" cm="1">
         <f t="array" ref="E191">IF(C191="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C191)*(工作表2!B:B=D191), 0)),""))</f>
@@ -4847,16 +4848,16 @@
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1">
       <c r="A192" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E192" s="5" cm="1">
         <f t="array" ref="E192">IF(C192="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C192)*(工作表2!B:B=D192), 0)),""))</f>
@@ -4865,16 +4866,16 @@
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E193" s="5" cm="1">
         <f t="array" ref="E193">IF(C193="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C193)*(工作表2!B:B=D193), 0)),""))</f>
@@ -4883,16 +4884,16 @@
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1">
       <c r="A194" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E194" s="5" cm="1">
         <f t="array" ref="E194">IF(C194="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C194)*(工作表2!B:B=D194), 0)),""))</f>
@@ -4901,16 +4902,16 @@
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1">
       <c r="A195" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195" s="5" cm="1">
         <f t="array" ref="E195">IF(C195="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C195)*(工作表2!B:B=D195), 0)),""))</f>
@@ -4919,16 +4920,16 @@
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1">
       <c r="A196" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E196" s="5" cm="1">
         <f t="array" ref="E196">IF(C196="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C196)*(工作表2!B:B=D196), 0)),""))</f>
@@ -4937,16 +4938,16 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E197" s="5" cm="1">
         <f t="array" ref="E197">IF(C197="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C197)*(工作表2!B:B=D197), 0)),""))</f>
@@ -4955,16 +4956,16 @@
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1">
       <c r="A198" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" s="5" cm="1">
         <f t="array" ref="E198">IF(C198="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C198)*(工作表2!B:B=D198), 0)),""))</f>
@@ -4973,16 +4974,16 @@
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1">
       <c r="A199" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D199" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E199" s="5" cm="1">
         <f t="array" ref="E199">IF(C199="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C199)*(工作表2!B:B=D199), 0)),""))</f>
@@ -4991,16 +4992,16 @@
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1">
       <c r="A200" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E200" s="5" cm="1">
         <f t="array" ref="E200">IF(C200="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C200)*(工作表2!B:B=D200), 0)),""))</f>
@@ -5009,16 +5010,16 @@
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1">
       <c r="A201" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201" s="5" cm="1">
         <f t="array" ref="E201">IF(C201="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C201)*(工作表2!B:B=D201), 0)),""))</f>
@@ -5027,16 +5028,16 @@
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1">
       <c r="A202" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E202" s="5" cm="1">
         <f t="array" ref="E202">IF(C202="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C202)*(工作表2!B:B=D202), 0)),""))</f>
@@ -5045,16 +5046,16 @@
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1">
       <c r="A203" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E203" s="5" cm="1">
         <f t="array" ref="E203">IF(C203="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C203)*(工作表2!B:B=D203), 0)),""))</f>
@@ -5063,16 +5064,16 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1">
       <c r="A204" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E204" s="5" cm="1">
         <f t="array" ref="E204">IF(C204="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C204)*(工作表2!B:B=D204), 0)),""))</f>
@@ -5081,16 +5082,16 @@
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1">
       <c r="A205" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E205" s="5" cm="1">
         <f t="array" ref="E205">IF(C205="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C205)*(工作表2!B:B=D205), 0)),""))</f>
@@ -5099,16 +5100,16 @@
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1">
       <c r="A206" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E206" s="5" cm="1">
         <f t="array" ref="E206">IF(C206="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C206)*(工作表2!B:B=D206), 0)),""))</f>
@@ -5117,16 +5118,16 @@
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1">
       <c r="A207" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E207" s="5" cm="1">
         <f t="array" ref="E207">IF(C207="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C207)*(工作表2!B:B=D207), 0)),""))</f>
@@ -5135,16 +5136,16 @@
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E208" s="5" cm="1">
         <f t="array" ref="E208">IF(C208="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C208)*(工作表2!B:B=D208), 0)),""))</f>
@@ -5153,16 +5154,16 @@
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E209" s="5" cm="1">
         <f t="array" ref="E209">IF(C209="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C209)*(工作表2!B:B=D209), 0)),""))</f>
@@ -5171,16 +5172,16 @@
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210" s="5" cm="1">
         <f t="array" ref="E210">IF(C210="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C210)*(工作表2!B:B=D210), 0)),""))</f>
@@ -5189,16 +5190,16 @@
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E211" s="5" cm="1">
         <f t="array" ref="E211">IF(C211="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C211)*(工作表2!B:B=D211), 0)),""))</f>
@@ -5207,16 +5208,16 @@
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E212" s="5" cm="1">
         <f t="array" ref="E212">IF(C212="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C212)*(工作表2!B:B=D212), 0)),""))</f>
@@ -5225,16 +5226,16 @@
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E213" s="5" cm="1">
         <f t="array" ref="E213">IF(C213="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C213)*(工作表2!B:B=D213), 0)),""))</f>
@@ -5243,16 +5244,16 @@
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E214" s="5" cm="1">
         <f t="array" ref="E214">IF(C214="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C214)*(工作表2!B:B=D214), 0)),""))</f>
@@ -5261,16 +5262,16 @@
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1">
       <c r="A215" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E215" s="5" cm="1">
         <f t="array" ref="E215">IF(C215="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C215)*(工作表2!B:B=D215), 0)),""))</f>
@@ -15485,7 +15486,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D1140" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15500,292 +15500,292 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5">
-      <c r="A16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
+    </row>
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21">
         <v>20</v>
